--- a/geenie.xlsx
+++ b/geenie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>타이틀</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>가수</t>
         </is>
@@ -461,10 +466,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Good Goodbye</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>화사 (HWASA)</t>
         </is>
@@ -481,10 +491,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>타임캡슐</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>다비치</t>
         </is>
@@ -501,10 +516,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Golden</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
         </is>
@@ -521,10 +541,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Drowning</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>WOODZ</t>
         </is>
@@ -541,10 +566,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>ONE MORE TIME</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>ALLDAY PROJECT</t>
         </is>
@@ -561,10 +591,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Blue Valentine</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>NMIXX</t>
         </is>
@@ -581,10 +616,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>멸종위기사랑</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>이찬혁</t>
         </is>
@@ -601,10 +641,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>뛰어(JUMP)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>BLACKPINK</t>
         </is>
@@ -621,12 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Soda Pop</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Saja Boys &amp; Andrew Choi &amp; Neckwav &amp; Danny Chung &amp; Kevin Woo &amp; samUIL Lee &amp; KPop Demon Hunters Cast</t>
+          <t>모르시나요 (Prod. by 로코베리)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>조째즈</t>
         </is>
       </c>
     </row>
@@ -641,10 +691,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>달리 표현할 수 없어요</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>로이킴</t>
         </is>
@@ -661,12 +716,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>모르시나요 (Prod. by 로코베리)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>Soda Pop</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Saja Boys &amp; Andrew Choi &amp; Neckwav &amp; Danny Chung &amp; Kevin Woo &amp; samUIL Lee &amp; KPop Demon Hunters Cast</t>
         </is>
       </c>
     </row>
@@ -681,12 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FAMOUS</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>시작의 아이</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
     </row>
@@ -701,12 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>어제보다 슬픈 오늘</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>우디 (Woody)</t>
         </is>
       </c>
     </row>
@@ -721,12 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SPAGHETTI (Feat. j-hope of BTS)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌) &amp; j-hope</t>
+          <t>FAMOUS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -741,12 +816,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>어제보다 슬픈 오늘</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>사랑은 늘 도망가</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -761,12 +841,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>SPAGHETTI (Feat. j-hope of BTS)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LE SSERAFIM (르세라핌) &amp; j-hope</t>
         </is>
       </c>
     </row>
@@ -781,12 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>All I Want for Christmas Is You</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mariah Carey</t>
         </is>
       </c>
     </row>
@@ -801,12 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -821,12 +916,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>너에게 닿기를</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10CM</t>
         </is>
       </c>
     </row>
@@ -841,12 +941,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>순간을 영원처럼</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -861,12 +966,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>다시 만날 수 있을까</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -881,12 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>우리들의 블루스</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -901,12 +1016,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>청춘만화</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -921,12 +1041,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>노아주다 (noahjooda)</t>
+          <t>Whiplash</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -941,12 +1066,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>HAPPY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -961,12 +1091,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>돌아보지 마세요</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -981,12 +1116,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>답장을 보낸지</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1141,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>그댈 위한 멜로디</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1166,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>시작의 아이 ❍</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>박다혜 &amp; 마크툽 (Maktub)</t>
+          <t>들꽃이 될게요</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1191,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>XOXZ</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>천국보다 아름다운</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1216,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1241,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>ULSSIGU</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1266,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Santa Tell Me</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>비가 와서</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1291,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1141,10 +1316,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>우리에게 안녕</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>임영웅</t>
         </is>
@@ -1161,12 +1341,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>알겠어요 미안해요</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1366,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>나는야 HERO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>임영웅</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1391,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>순간을 영원처럼</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>나는 반딧불</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1416,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Your Idol</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Saja Boys &amp; Andrew Choi &amp; Neckwav &amp; Danny Chung &amp; Kevin Woo &amp; samUIL Lee &amp; KPop Demon Hunters Cast</t>
+          <t>toxic till the end</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1441,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>노아주다 (noahjooda)</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1466,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>첫 눈</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>EXO</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1491,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>천상연</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1516,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MY LOVE (2025)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
+          <t>한 페이지가 될 수 있게</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1541,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>시작의 아이 ❍</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>박다혜 &amp; 마크툽 (Maktub)</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1566,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>like JENNIE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1591,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>IRIS OUT</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Kenshi Yonezu</t>
+          <t>Santa Tell Me</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Ariana Grande</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1616,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>XOXZ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1641,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>그래 늦지 않았어 (2025)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>아샤트리 &amp; 이예은 &amp; 전건호</t>
+          <t>REBEL HEART</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1666,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>APT.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1691,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>운명 (2025)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>먼데이 키즈 &amp; 이이경</t>
+          <t>너의 모든 순간</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>성시경</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1716,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>예뻤어</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1741,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>운명 (2025)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>먼데이 키즈 &amp; 이이경</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TOO BAD (Feat. Anderson .Paak)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>MY LOVE (2025)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>Welcome to the Show</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>오반 (OVAN)</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1841,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>벌써 일년</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>브라운 아이즈</t>
+          <t>Die With A Smile</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Lady Gaga &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>사랑하게 될 거야</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>TOO BAD (Feat. Anderson .Paak)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>G-DRAGON</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1891,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Last Christmas</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wham!</t>
+          <t>소나기</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Underneath the Tree</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Kelly Clarkson</t>
+          <t>Your Idol</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Saja Boys &amp; Andrew Choi &amp; Neckwav &amp; Danny Chung &amp; Kevin Woo &amp; samUIL Lee &amp; KPop Demon Hunters Cast</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>Love wins all</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rich Man</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>그래 늦지 않았어 (2025)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>아샤트리 &amp; 이예은 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>그댈 위한 멜로디</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>에피소드</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>이무진</t>
         </is>
       </c>
     </row>
@@ -1701,12 +2016,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>답장을 보낸지</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>미리 메리 크리스마스 (Feat. 천둥 of MBLAQ)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -1721,12 +2041,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>How It's Done</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
+          <t>비의 랩소디</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>임재현</t>
         </is>
       </c>
     </row>
@@ -1741,12 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>들꽃이 될게요</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>주저하는 연인들을 위해</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>잔나비</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2091,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>비가 와서</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Last Christmas</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Wham!</t>
         </is>
       </c>
     </row>
@@ -1781,12 +2116,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>돌아보지 마세요</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>고민중독</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -1801,12 +2141,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>우리에게 안녕</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>슬픈 초대장</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>순순희 (지환)</t>
         </is>
       </c>
     </row>
@@ -1821,12 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Underneath the Tree</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
     </row>
@@ -1841,12 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>알겠어요 미안해요</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>벌써 일년</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>브라운 아이즈</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ULSSIGU</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Rich Man</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -1881,12 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>천국보다 아름다운</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Never Ending Story</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>아이유 (IU)</t>
         </is>
       </c>
     </row>
@@ -1901,12 +2266,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>나는야 HERO</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IRIS OUT</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Kenshi Yonezu</t>
         </is>
       </c>
     </row>
@@ -1921,12 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>내 이름 맑음</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>QWER</t>
         </is>
       </c>
     </row>
@@ -1941,12 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>사랑하게 될 거야</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>한로로</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
     </row>
@@ -1981,10 +2366,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>숲</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>최유리</t>
         </is>
@@ -2001,12 +2391,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>Flower</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>오반 (OVAN)</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2416,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>하얀 그리움</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>한번 더 이별</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>이창섭</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2441,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>오늘만 I LOVE YOU</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>가까운 듯 먼 그대여</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>카더가든</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>폴킴</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2491,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>미치게 그리워서</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>황가람</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2516,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>로이킴</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2541,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>WICKED</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>Supernova</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2566,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>How It's Done</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2591,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LOOK AT ME</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>사랑인가 봐</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
     </row>
@@ -2181,10 +2616,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>지니</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>사건의 지평선</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>윤하 (YOUNHA)</t>
         </is>
@@ -2201,12 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>심 (心)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2666,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>다정히 내 이름을 부르면</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2691,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>미치게 그리워서</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>첫눈처럼 너에게 가겠다</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>에일리 (Ailee)</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2716,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>하얀 그리움</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>프로미스나인</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2741,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>가까운 듯 먼 그대여</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>카더가든</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2766,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>첫눈처럼 너에게 가겠다</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>에일리 (Ailee)</t>
+          <t>LOOK AT ME</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2791,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>심 (心)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>DK (디셈버)</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2816,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>한번 더 이별</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>크리스마스니까</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>성시경 &amp; 박효신 &amp; 이석훈 &amp; 서인국 &amp; VIXX (빅스)</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2841,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>WICKED</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2866,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dirty Work</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>I AM</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>IVE (아이브)</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2891,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Zoo (From 'Zootopia 2')</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Disney &amp; Shakira</t>
+          <t>NOT CUTE ANYMORE</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>아일릿 (ILLIT)</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2916,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>Dirty Work</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>aespa</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2941,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>지니</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>희재</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>성시경</t>
         </is>
       </c>
     </row>
